--- a/0-documents/voltage regulator BOM.xlsx
+++ b/0-documents/voltage regulator BOM.xlsx
@@ -668,7 +668,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
